--- a/data_processed/Further_Lists/data_PL_2.xlsx
+++ b/data_processed/Further_Lists/data_PL_2.xlsx
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,8 +1129,8 @@
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1178,10 +1178,10 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" t="s">
         <v>54</v>
-      </c>
-      <c r="P1" t="s">
-        <v>236</v>
       </c>
       <c r="Q1" t="s">
         <v>230</v>
@@ -1218,7 +1218,8 @@
       <c r="N2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" t="s">
         <v>179</v>
       </c>
       <c r="Q2">
@@ -1254,7 +1255,8 @@
       <c r="N3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" t="s">
         <v>184</v>
       </c>
       <c r="Q3">
@@ -1292,7 +1294,8 @@
       <c r="N4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1322,7 +1325,8 @@
       <c r="N5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" t="s">
         <v>182</v>
       </c>
       <c r="Q5">
@@ -1360,7 +1364,8 @@
       <c r="N6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" t="s">
         <v>185</v>
       </c>
       <c r="Q6">
@@ -1396,7 +1401,8 @@
       <c r="N7" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1429,6 +1435,7 @@
       <c r="N8" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="O8" s="2"/>
       <c r="Q8">
         <v>50.895910000000001</v>
       </c>
@@ -1462,7 +1469,8 @@
       <c r="N9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" t="s">
         <v>180</v>
       </c>
       <c r="Q9" s="9">
@@ -1498,7 +1506,7 @@
       <c r="N10" t="s">
         <v>197</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>189</v>
       </c>
       <c r="Q10">
@@ -1535,7 +1543,8 @@
       <c r="N11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2"/>
+      <c r="P11" t="s">
         <v>66</v>
       </c>
       <c r="Q11">
@@ -1571,7 +1580,8 @@
       <c r="N12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" t="s">
         <v>178</v>
       </c>
       <c r="Q12">
@@ -1607,7 +1617,7 @@
       <c r="N13" t="s">
         <v>208</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>192</v>
       </c>
       <c r="Q13">
@@ -1639,7 +1649,7 @@
       <c r="N14" t="s">
         <v>198</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1669,7 +1679,7 @@
       <c r="N15" t="s">
         <v>208</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>194</v>
       </c>
       <c r="Q15">
@@ -1699,7 +1709,7 @@
       <c r="N16" t="s">
         <v>205</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>206</v>
       </c>
       <c r="Q16">
@@ -1737,7 +1747,7 @@
       <c r="N17" t="s">
         <v>209</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>211</v>
       </c>
       <c r="Q17">
@@ -1774,7 +1784,8 @@
       <c r="N18" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" t="s">
         <v>214</v>
       </c>
       <c r="Q18">
@@ -1809,7 +1820,8 @@
       <c r="N19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="2"/>
+      <c r="P19" t="s">
         <v>98</v>
       </c>
       <c r="Q19">
@@ -1847,7 +1859,7 @@
       <c r="N20" t="s">
         <v>218</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>216</v>
       </c>
       <c r="Q20">
@@ -1885,7 +1897,7 @@
       <c r="N21" t="s">
         <v>221</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>222</v>
       </c>
       <c r="Q21">
@@ -1921,7 +1933,7 @@
       <c r="N22" t="s">
         <v>208</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>225</v>
       </c>
       <c r="Q22">
@@ -1957,7 +1969,8 @@
       <c r="N23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" t="s">
         <v>181</v>
       </c>
       <c r="Q23">
@@ -1996,6 +2009,7 @@
       <c r="N24" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="O24" s="2"/>
       <c r="Q24">
         <v>50.063850000000002</v>
       </c>
@@ -2030,7 +2044,8 @@
       <c r="N25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="2"/>
+      <c r="P25" t="s">
         <v>62</v>
       </c>
       <c r="Q25">
@@ -2094,6 +2109,7 @@
       <c r="N27" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="O27" s="2"/>
       <c r="Q27">
         <v>53.101219999999998</v>
       </c>
@@ -2130,6 +2146,7 @@
       <c r="N28" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O28" s="2"/>
       <c r="Q28" s="9">
         <v>54.155900000000003</v>
       </c>
@@ -2165,6 +2182,7 @@
       <c r="N29" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="O29" s="3"/>
       <c r="Q29">
         <v>50.794629999999998</v>
       </c>
@@ -2200,6 +2218,7 @@
       <c r="N30" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="O30" s="3"/>
       <c r="Q30">
         <v>50.29954</v>
       </c>
@@ -2229,6 +2248,7 @@
       <c r="N31" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O31" s="2"/>
       <c r="Q31">
         <v>49.761420000000001</v>
       </c>
@@ -2264,6 +2284,7 @@
       <c r="N32" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="O32" s="3"/>
       <c r="Q32">
         <v>50.34478</v>
       </c>
@@ -2300,6 +2321,7 @@
       <c r="N33" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="O33" s="2"/>
       <c r="Q33">
         <v>51.841569999999997</v>
       </c>
@@ -2329,6 +2351,7 @@
       <c r="N34" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O34" s="2"/>
       <c r="Q34">
         <v>49.747419999999998</v>
       </c>
@@ -2358,6 +2381,7 @@
       <c r="N35" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O35" s="2"/>
       <c r="Q35">
         <v>50.963859999999997</v>
       </c>
@@ -2387,6 +2411,7 @@
       <c r="N36" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O36" s="2"/>
       <c r="Q36">
         <v>49.807189999999999</v>
       </c>
@@ -2416,6 +2441,7 @@
       <c r="N37" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O37" s="2"/>
       <c r="Q37">
         <v>51.26126</v>
       </c>
@@ -2445,6 +2471,7 @@
       <c r="N38" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O38" s="2"/>
       <c r="Q38">
         <v>49.810130000000001</v>
       </c>
@@ -2474,6 +2501,7 @@
       <c r="N39" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O39" s="2"/>
       <c r="Q39">
         <v>49.43103</v>
       </c>
@@ -2508,6 +2536,7 @@
       <c r="N40" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O40" s="2"/>
       <c r="Q40">
         <v>51.766770000000001</v>
       </c>
@@ -2537,6 +2566,7 @@
       <c r="N41" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O41" s="2"/>
       <c r="Q41">
         <v>50.459009999999999</v>
       </c>
@@ -2566,6 +2596,7 @@
       <c r="N42" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O42" s="2"/>
       <c r="Q42">
         <v>51.11307</v>
       </c>
@@ -2595,6 +2626,7 @@
       <c r="N43" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O43" s="2"/>
       <c r="Q43">
         <v>50.943010000000001</v>
       </c>
@@ -2624,6 +2656,7 @@
       <c r="N44" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O44" s="2"/>
       <c r="Q44" s="9">
         <v>51.0229</v>
       </c>
@@ -2656,6 +2689,7 @@
       <c r="N45" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O45" s="2"/>
       <c r="Q45">
         <v>54.288469999999997</v>
       </c>
@@ -2685,6 +2719,7 @@
       <c r="N46" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O46" s="2"/>
       <c r="Q46">
         <v>50.041919999999998</v>
       </c>
@@ -2714,6 +2749,7 @@
       <c r="N47" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O47" s="2"/>
       <c r="Q47">
         <v>50.925849999999997</v>
       </c>
@@ -2743,6 +2779,7 @@
       <c r="N48" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O48" s="2"/>
       <c r="Q48">
         <v>50.05294</v>
       </c>
@@ -2772,6 +2809,7 @@
       <c r="N49" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O49" s="2"/>
       <c r="Q49">
         <v>50.94162</v>
       </c>
@@ -2799,6 +2837,7 @@
       <c r="N50" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O50" s="2"/>
       <c r="Q50">
         <v>50.463059999999999</v>
       </c>
@@ -2828,6 +2867,7 @@
       <c r="N51" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O51" s="2"/>
       <c r="Q51">
         <v>52.029319999999998</v>
       </c>
@@ -2857,6 +2897,7 @@
       <c r="N52" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O52" s="2"/>
       <c r="Q52">
         <v>51.672429999999999</v>
       </c>
@@ -2886,6 +2927,7 @@
       <c r="N53" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O53" s="2"/>
       <c r="Q53">
         <v>51.029429999999998</v>
       </c>
@@ -2918,6 +2960,7 @@
       <c r="N54" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O54" s="2"/>
       <c r="Q54" s="9">
         <v>54.273099999999999</v>
       </c>
@@ -2950,6 +2993,7 @@
       <c r="N55" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O55" s="2"/>
       <c r="Q55">
         <v>54.309609999999999</v>
       </c>
@@ -2979,6 +3023,7 @@
       <c r="N56" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O56" s="2"/>
       <c r="Q56">
         <v>51.159709999999997</v>
       </c>
@@ -3008,6 +3053,7 @@
       <c r="N57" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O57" s="2"/>
       <c r="Q57">
         <v>51.411929999999998</v>
       </c>
@@ -3037,6 +3083,7 @@
       <c r="N58" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O58" s="2"/>
       <c r="Q58">
         <v>50.736820000000002</v>
       </c>
@@ -3066,6 +3113,7 @@
       <c r="N59" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O59" s="2"/>
       <c r="Q59">
         <v>51.729619999999997</v>
       </c>
@@ -3095,6 +3143,7 @@
       <c r="N60" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O60" s="2"/>
       <c r="Q60">
         <v>50.754460000000002</v>
       </c>
@@ -3124,6 +3173,7 @@
       <c r="N61" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O61" s="2"/>
       <c r="Q61">
         <v>51.619709999999998</v>
       </c>
@@ -3153,6 +3203,7 @@
       <c r="N62" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O62" s="2"/>
       <c r="Q62">
         <v>51.053060000000002</v>
       </c>
@@ -3182,6 +3233,7 @@
       <c r="N63" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O63" s="2"/>
       <c r="Q63">
         <v>50.390259999999998</v>
       </c>
@@ -3211,6 +3263,7 @@
       <c r="N64" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O64" s="2"/>
       <c r="Q64">
         <v>51.490479999999998</v>
       </c>
@@ -3240,6 +3293,7 @@
       <c r="N65" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O65" s="2"/>
       <c r="Q65">
         <v>50.471580000000003</v>
       </c>
@@ -3269,6 +3323,7 @@
       <c r="N66" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O66" s="2"/>
       <c r="Q66">
         <v>50.428379999999997</v>
       </c>
@@ -3298,6 +3353,7 @@
       <c r="N67" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O67" s="2"/>
       <c r="Q67">
         <v>50.76511</v>
       </c>
@@ -3327,6 +3383,7 @@
       <c r="N68" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O68" s="2"/>
       <c r="Q68">
         <v>51.615380000000002</v>
       </c>
@@ -3356,6 +3413,7 @@
       <c r="N69" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O69" s="2"/>
       <c r="Q69">
         <v>51.951779999999999</v>
       </c>
@@ -3385,6 +3443,7 @@
       <c r="N70" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O70" s="2"/>
       <c r="Q70">
         <v>50.826970000000003</v>
       </c>
@@ -3417,6 +3476,7 @@
       <c r="N71" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O71" s="2"/>
       <c r="Q71">
         <v>54.285670000000003</v>
       </c>
@@ -3449,6 +3509,7 @@
       <c r="N72" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O72" s="2"/>
       <c r="Q72">
         <v>54.067439999999998</v>
       </c>
@@ -3478,6 +3539,7 @@
       <c r="N73" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O73" s="2"/>
       <c r="Q73">
         <v>50.179879999999997</v>
       </c>
@@ -3507,6 +3569,7 @@
       <c r="N74" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O74" s="2"/>
       <c r="Q74">
         <v>50.921140000000001</v>
       </c>
@@ -3536,6 +3599,7 @@
       <c r="N75" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O75" s="2"/>
       <c r="Q75">
         <v>51.115229999999997</v>
       </c>
@@ -3565,6 +3629,7 @@
       <c r="N76" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O76" s="2"/>
       <c r="Q76">
         <v>51.211779999999997</v>
       </c>
@@ -3594,6 +3659,7 @@
       <c r="N77" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O77" s="2"/>
       <c r="Q77">
         <v>51.608060000000002</v>
       </c>
@@ -3626,6 +3692,7 @@
       <c r="N78" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O78" s="2"/>
       <c r="Q78" s="9">
         <v>53.8429</v>
       </c>
@@ -3655,6 +3722,7 @@
       <c r="N79" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O79" s="2"/>
       <c r="Q79">
         <v>51.735939999999999</v>
       </c>
@@ -3687,6 +3755,7 @@
       <c r="N80" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O80" s="2"/>
       <c r="Q80">
         <v>54.296390000000002</v>
       </c>
@@ -3716,6 +3785,7 @@
       <c r="N81" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O81" s="2"/>
       <c r="Q81">
         <v>51.81935</v>
       </c>
@@ -3745,6 +3815,7 @@
       <c r="N82" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O82" s="2"/>
       <c r="Q82">
         <v>50.992579999999997</v>
       </c>
@@ -3774,6 +3845,7 @@
       <c r="N83" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O83" s="2"/>
       <c r="Q83">
         <v>51.726080000000003</v>
       </c>
@@ -3803,6 +3875,7 @@
       <c r="N84" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O84" s="2"/>
       <c r="Q84" s="9">
         <v>51.561500000000002</v>
       </c>
@@ -3832,6 +3905,7 @@
       <c r="N85" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O85" s="2"/>
       <c r="Q85">
         <v>51.561279999999996</v>
       </c>
@@ -3861,6 +3935,7 @@
       <c r="N86" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O86" s="2"/>
       <c r="Q86">
         <v>50.849220000000003</v>
       </c>
@@ -3890,6 +3965,7 @@
       <c r="N87" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O87" s="2"/>
       <c r="Q87">
         <v>50.479340000000001</v>
       </c>
@@ -3919,6 +3995,7 @@
       <c r="N88" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O88" s="2"/>
       <c r="Q88">
         <v>51.398650000000004</v>
       </c>
@@ -3948,6 +4025,7 @@
       <c r="N89" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O89" s="2"/>
       <c r="Q89">
         <v>51.329639999999998</v>
       </c>
@@ -3977,6 +4055,7 @@
       <c r="N90" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O90" s="2"/>
       <c r="Q90">
         <v>51.594209999999997</v>
       </c>
@@ -4009,6 +4088,7 @@
       <c r="N91" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O91" s="2"/>
       <c r="Q91">
         <v>50.941980000000001</v>
       </c>
@@ -4041,6 +4121,7 @@
       <c r="N92" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O92" s="2"/>
       <c r="Q92">
         <v>54.039630000000002</v>
       </c>
@@ -4073,6 +4154,7 @@
       <c r="N93" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O93" s="2"/>
       <c r="Q93">
         <v>54.214950000000002</v>
       </c>
@@ -4105,6 +4187,7 @@
       <c r="N94" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O94" s="2"/>
       <c r="Q94">
         <v>54.277450000000002</v>
       </c>
@@ -4137,6 +4220,7 @@
       <c r="N95" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O95" s="2"/>
       <c r="Q95">
         <v>54.191130000000001</v>
       </c>
@@ -4166,6 +4250,7 @@
       <c r="N96" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O96" s="2"/>
       <c r="Q96">
         <v>50.310980000000001</v>
       </c>
@@ -4198,6 +4283,7 @@
       <c r="N97" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O97" s="2"/>
       <c r="Q97">
         <v>54.345350000000003</v>
       </c>
@@ -4230,6 +4316,7 @@
       <c r="N98" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O98" s="2"/>
       <c r="Q98">
         <v>53.350009999999997</v>
       </c>
@@ -4262,6 +4349,7 @@
       <c r="N99" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O99" s="2"/>
       <c r="Q99" s="9">
         <v>54.278500000000001</v>
       </c>
@@ -4294,6 +4382,7 @@
       <c r="N100" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O100" s="2"/>
       <c r="Q100">
         <v>54.192970000000003</v>
       </c>
@@ -4326,6 +4415,7 @@
       <c r="N101" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O101" s="2"/>
       <c r="Q101">
         <v>54.26925</v>
       </c>
@@ -4355,6 +4445,7 @@
       <c r="N102" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O102" s="2"/>
       <c r="Q102">
         <v>50.504170000000002</v>
       </c>
@@ -4387,6 +4478,7 @@
       <c r="N103" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O103" s="2"/>
       <c r="Q103">
         <v>54.379150000000003</v>
       </c>
@@ -4416,6 +4508,7 @@
       <c r="N104" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O104" s="2"/>
       <c r="Q104">
         <v>50.862070000000003</v>
       </c>
@@ -4445,6 +4538,7 @@
       <c r="N105" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O105" s="2"/>
       <c r="Q105">
         <v>51.166670000000003</v>
       </c>
@@ -4477,6 +4571,7 @@
       <c r="N106" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O106" s="2"/>
       <c r="Q106">
         <v>54.589820000000003</v>
       </c>
@@ -4509,6 +4604,7 @@
       <c r="N107" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O107" s="2"/>
       <c r="Q107">
         <v>54.066839999999999</v>
       </c>
@@ -4541,6 +4637,7 @@
       <c r="N108" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O108" s="2"/>
       <c r="Q108">
         <v>53.881570000000004</v>
       </c>
@@ -4573,6 +4670,7 @@
       <c r="N109" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O109" s="2"/>
       <c r="Q109">
         <v>54.237540000000003</v>
       </c>
@@ -4605,6 +4703,7 @@
       <c r="N110" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O110" s="2"/>
       <c r="Q110">
         <v>53.81373</v>
       </c>
@@ -4634,6 +4733,7 @@
       <c r="N111" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O111" s="2"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
@@ -4660,6 +4760,7 @@
       <c r="N112" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O112" s="2"/>
       <c r="Q112">
         <v>54.127049999999997</v>
       </c>
@@ -4692,6 +4793,7 @@
       <c r="N113" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O113" s="2"/>
       <c r="Q113">
         <v>54.252279999999999</v>
       </c>
@@ -4721,6 +4823,7 @@
       <c r="N114" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O114" s="2"/>
       <c r="Q114">
         <v>50.930950000000003</v>
       </c>
@@ -4753,6 +4856,7 @@
       <c r="N115" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O115" s="2"/>
       <c r="Q115">
         <v>54.160969999999999</v>
       </c>
@@ -4785,6 +4889,7 @@
       <c r="N116" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O116" s="2"/>
       <c r="Q116">
         <v>54.04074</v>
       </c>
@@ -4814,6 +4919,7 @@
       <c r="N117" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O117" s="2"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
@@ -4840,6 +4946,7 @@
       <c r="N118" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O118" s="2"/>
       <c r="Q118">
         <v>53.959110000000003</v>
       </c>
@@ -4869,6 +4976,7 @@
       <c r="N119" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O119" s="2"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
@@ -4895,6 +5003,7 @@
       <c r="N120" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O120" s="2"/>
       <c r="Q120">
         <v>53.952620000000003</v>
       </c>
@@ -4927,6 +5036,7 @@
       <c r="N121" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O121" s="2"/>
       <c r="Q121">
         <v>54.248959999999997</v>
       </c>
@@ -4959,6 +5069,7 @@
       <c r="N122" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O122" s="2"/>
       <c r="Q122">
         <v>53.998379999999997</v>
       </c>
@@ -4991,6 +5102,7 @@
       <c r="N123" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O123" s="2"/>
       <c r="Q123">
         <v>54.257249999999999</v>
       </c>
@@ -5023,6 +5135,7 @@
       <c r="N124" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O124" s="2"/>
       <c r="Q124">
         <v>54.66281</v>
       </c>
@@ -5055,6 +5168,7 @@
       <c r="N125" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O125" s="2"/>
       <c r="Q125">
         <v>53.818080000000002</v>
       </c>
@@ -5087,6 +5201,7 @@
       <c r="N126" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O126" s="2"/>
       <c r="Q126">
         <v>54.331710000000001</v>
       </c>
@@ -5119,6 +5234,7 @@
       <c r="N127" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O127" s="2"/>
       <c r="Q127">
         <v>54.365949999999998</v>
       </c>
@@ -5148,6 +5264,7 @@
       <c r="N128" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="O128" s="2"/>
       <c r="Q128">
         <v>49.43103</v>
       </c>
@@ -5180,6 +5297,7 @@
       <c r="N129" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O129" s="2"/>
       <c r="Q129">
         <v>54.23312</v>
       </c>
@@ -5212,6 +5330,7 @@
       <c r="N130" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O130" s="2"/>
       <c r="Q130">
         <v>54.573050000000002</v>
       </c>
@@ -5241,6 +5360,7 @@
       <c r="N131" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O131" s="2"/>
       <c r="Q131">
         <v>50.828789999999998</v>
       </c>
@@ -5270,6 +5390,7 @@
       <c r="N132" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="O132" s="2"/>
       <c r="Q132">
         <v>50.920940000000002</v>
       </c>
@@ -5302,6 +5423,7 @@
       <c r="N133" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O133" s="2"/>
       <c r="Q133">
         <v>54.252650000000003</v>
       </c>
@@ -5334,6 +5456,7 @@
       <c r="N134" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O134" s="2"/>
       <c r="Q134">
         <v>54.455269999999999</v>
       </c>
@@ -5366,6 +5489,7 @@
       <c r="N135" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O135" s="2"/>
       <c r="Q135">
         <v>54.175289999999997</v>
       </c>
@@ -5398,6 +5522,7 @@
       <c r="N136" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O136" s="2"/>
       <c r="Q136">
         <v>54.642850000000003</v>
       </c>
@@ -5430,6 +5555,7 @@
       <c r="N137" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O137" s="2"/>
       <c r="Q137">
         <v>54.411729999999999</v>
       </c>
@@ -5462,6 +5588,7 @@
       <c r="N138" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O138" s="2"/>
       <c r="Q138">
         <v>54.642650000000003</v>
       </c>
@@ -5494,6 +5621,7 @@
       <c r="N139" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="O139" s="2"/>
       <c r="Q139">
         <v>54.192570000000003</v>
       </c>
